--- a/BookShelves.xlsx
+++ b/BookShelves.xlsx
@@ -23,13 +23,13 @@
     <t>Rhodes Folding Book Shelf</t>
   </si>
   <si>
-    <t>₹13,259</t>
+    <t>₹12,899</t>
   </si>
   <si>
     <t>Austen Bookshelf/Display Unit</t>
   </si>
   <si>
-    <t>₹10,999</t>
+    <t>₹8,249</t>
   </si>
 </sst>
 </file>
